--- a/hasil/2024_01_lipa_1.xlsx
+++ b/hasil/2024_01_lipa_1.xlsx
@@ -798,7 +798,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 22 Agustus 2024</t>
+    <t>Ternate , 26 Agustus 2024</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
